--- a/USDATAX/AAPL.xlsx
+++ b/USDATAX/AAPL.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="98">
   <si>
     <t>Kalem</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>İşletme Faaliyetlerinden Nakit Akışları</t>
+  </si>
+  <si>
+    <t>FAVÖK</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BU25"/>
+  <dimension ref="A1:BU26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4347,6 +4350,227 @@
       </c>
       <c r="BO25">
         <v>29935000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:73">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3101000000</v>
+      </c>
+      <c r="E26">
+        <v>1392000000</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>4725000000</v>
+      </c>
+      <c r="H26">
+        <v>2323000000</v>
+      </c>
+      <c r="I26">
+        <v>2632000000</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>7827000000</v>
+      </c>
+      <c r="L26">
+        <v>3979000000</v>
+      </c>
+      <c r="M26">
+        <v>4234000000</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>17340000000</v>
+      </c>
+      <c r="P26">
+        <v>7874000000</v>
+      </c>
+      <c r="Q26">
+        <v>9379000000</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>17210000000</v>
+      </c>
+      <c r="T26">
+        <v>15384000000</v>
+      </c>
+      <c r="U26">
+        <v>11573000000</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>17463000000</v>
+      </c>
+      <c r="X26">
+        <v>12558000000</v>
+      </c>
+      <c r="Y26">
+        <v>9201000000</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>24246000000</v>
+      </c>
+      <c r="AB26">
+        <v>13593000000</v>
+      </c>
+      <c r="AC26">
+        <v>10282000000</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>24171000000</v>
+      </c>
+      <c r="AF26">
+        <v>18278000000</v>
+      </c>
+      <c r="AG26">
+        <v>14083000000</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>23359000000</v>
+      </c>
+      <c r="AJ26">
+        <v>13987000000</v>
+      </c>
+      <c r="AK26">
+        <v>10105000000</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>29019000000</v>
+      </c>
+      <c r="AN26">
+        <v>14097000000</v>
+      </c>
+      <c r="AO26">
+        <v>10768000000</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>26741000000</v>
+      </c>
+      <c r="AR26">
+        <v>15894000000</v>
+      </c>
+      <c r="AS26">
+        <v>12612000000</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>28385000000</v>
+      </c>
+      <c r="AV26">
+        <v>13415000000</v>
+      </c>
+      <c r="AW26">
+        <v>11544000000</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>36200000000</v>
+      </c>
+      <c r="AZ26">
+        <v>12853000000</v>
+      </c>
+      <c r="BA26">
+        <v>13091000000</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>44185000000</v>
+      </c>
+      <c r="BD26">
+        <v>27503000000</v>
+      </c>
+      <c r="BE26">
+        <v>24126000000</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>38932000000</v>
+      </c>
+      <c r="BH26">
+        <v>29979000000</v>
+      </c>
+      <c r="BI26">
+        <v>23076000000</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>43221000000</v>
+      </c>
+      <c r="BL26">
+        <v>28318000000</v>
+      </c>
+      <c r="BM26">
+        <v>22998000000</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>45912000000</v>
+      </c>
+      <c r="BP26">
+        <v>27900000000</v>
+      </c>
+      <c r="BQ26">
+        <v>25352000000</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>29589000000</v>
+      </c>
+      <c r="BT26">
+        <v>28202000000</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6532,7 +6756,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BU10"/>
+  <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8083,6 +8307,227 @@
       </c>
       <c r="BT10">
         <v>-50318000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3101000000</v>
+      </c>
+      <c r="E11">
+        <v>1392000000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4725000000</v>
+      </c>
+      <c r="H11">
+        <v>2323000000</v>
+      </c>
+      <c r="I11">
+        <v>2632000000</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>7827000000</v>
+      </c>
+      <c r="L11">
+        <v>3979000000</v>
+      </c>
+      <c r="M11">
+        <v>4234000000</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>17340000000</v>
+      </c>
+      <c r="P11">
+        <v>7874000000</v>
+      </c>
+      <c r="Q11">
+        <v>9379000000</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>17210000000</v>
+      </c>
+      <c r="T11">
+        <v>15384000000</v>
+      </c>
+      <c r="U11">
+        <v>11573000000</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>17463000000</v>
+      </c>
+      <c r="X11">
+        <v>12558000000</v>
+      </c>
+      <c r="Y11">
+        <v>9201000000</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>24246000000</v>
+      </c>
+      <c r="AB11">
+        <v>13593000000</v>
+      </c>
+      <c r="AC11">
+        <v>10282000000</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>24171000000</v>
+      </c>
+      <c r="AF11">
+        <v>18278000000</v>
+      </c>
+      <c r="AG11">
+        <v>14083000000</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>23359000000</v>
+      </c>
+      <c r="AJ11">
+        <v>13987000000</v>
+      </c>
+      <c r="AK11">
+        <v>10105000000</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>29019000000</v>
+      </c>
+      <c r="AN11">
+        <v>14097000000</v>
+      </c>
+      <c r="AO11">
+        <v>10768000000</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>26741000000</v>
+      </c>
+      <c r="AR11">
+        <v>15894000000</v>
+      </c>
+      <c r="AS11">
+        <v>12612000000</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>28385000000</v>
+      </c>
+      <c r="AV11">
+        <v>13415000000</v>
+      </c>
+      <c r="AW11">
+        <v>11544000000</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>36200000000</v>
+      </c>
+      <c r="AZ11">
+        <v>12853000000</v>
+      </c>
+      <c r="BA11">
+        <v>13091000000</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>44185000000</v>
+      </c>
+      <c r="BD11">
+        <v>27503000000</v>
+      </c>
+      <c r="BE11">
+        <v>24126000000</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>38932000000</v>
+      </c>
+      <c r="BH11">
+        <v>29979000000</v>
+      </c>
+      <c r="BI11">
+        <v>23076000000</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>43221000000</v>
+      </c>
+      <c r="BL11">
+        <v>28318000000</v>
+      </c>
+      <c r="BM11">
+        <v>22998000000</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>45912000000</v>
+      </c>
+      <c r="BP11">
+        <v>27900000000</v>
+      </c>
+      <c r="BQ11">
+        <v>25352000000</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>29589000000</v>
+      </c>
+      <c r="BT11">
+        <v>28202000000</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
